--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C1FE0-F723-45DA-85B0-A465C1790463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4557BC-D906-4B02-8210-AF2DC1C9F430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
   <si>
     <t>Complemento</t>
   </si>
@@ -392,18 +392,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -480,6 +468,33 @@
   </si>
   <si>
     <t>S110037</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
   </si>
 </sst>
 </file>
@@ -562,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -576,12 +591,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -913,914 +943,1132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="4" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="4">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="4">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="4" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="4">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="4">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="D78" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C80" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}"/>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D1&lt;&gt;""</formula>
+  <autoFilter ref="A1:D78" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}"/>
+  <conditionalFormatting sqref="A1 C1:D1">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C80">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:D78">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C4 C5:C6 C7:C9 C10:C19 C20:C33 C34:C43 C44:C80" numberStoredAsText="1"/>
+    <ignoredError sqref="D38:D78 D4:D36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4557BC-D906-4B02-8210-AF2DC1C9F430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBAA1F-64DC-446E-98A8-B6CAB59BC217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -464,9 +464,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -495,6 +492,9 @@
   </si>
   <si>
     <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -594,6 +594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,11 +605,8 @@
   <dxfs count="3">
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
-          <color rgb="FF00B0F0"/>
+          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -647,9 +647,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,7 +687,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -793,7 +793,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -935,7 +935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,7 +946,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A78" sqref="A78:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>100</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1032,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1060,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1088,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1116,7 +1116,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>103</v>
@@ -1130,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1144,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1158,7 +1158,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1172,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1186,7 +1186,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>107</v>
@@ -1200,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
@@ -1214,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
@@ -1228,7 +1228,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -1242,7 +1242,7 @@
         <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>109</v>
@@ -1256,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>111</v>
@@ -1284,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -1298,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>36</v>
@@ -1312,7 +1312,7 @@
         <v>112</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>113</v>
@@ -1326,7 +1326,7 @@
         <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>116</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>38</v>
@@ -1354,7 +1354,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>40</v>
@@ -1368,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>42</v>
@@ -1382,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>42</v>
@@ -1396,7 +1396,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -1410,7 +1410,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1424,7 +1424,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>47</v>
@@ -1438,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>47</v>
@@ -1452,7 +1452,7 @@
         <v>117</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>118</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>50</v>
@@ -1494,7 +1494,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>52</v>
@@ -1508,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>54</v>
@@ -1522,7 +1522,7 @@
         <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -1536,7 +1536,7 @@
         <v>57</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>58</v>
@@ -1550,7 +1550,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>60</v>
@@ -1564,7 +1564,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>62</v>
@@ -1578,7 +1578,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>64</v>
@@ -1592,7 +1592,7 @@
         <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>64</v>
@@ -1606,7 +1606,7 @@
         <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
@@ -1620,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>66</v>
@@ -1634,7 +1634,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>68</v>
@@ -1648,7 +1648,7 @@
         <v>123</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>124</v>
@@ -1662,7 +1662,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>70</v>
@@ -1676,7 +1676,7 @@
         <v>71</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>70</v>
@@ -1690,7 +1690,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>73</v>
@@ -1704,7 +1704,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>75</v>
@@ -1718,7 +1718,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>77</v>
@@ -1732,7 +1732,7 @@
         <v>78</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>79</v>
@@ -1746,7 +1746,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>79</v>
@@ -1760,7 +1760,7 @@
         <v>81</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>79</v>
@@ -1774,7 +1774,7 @@
         <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>82</v>
@@ -1788,7 +1788,7 @@
         <v>126</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -1802,7 +1802,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>84</v>
@@ -1816,7 +1816,7 @@
         <v>83</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>84</v>
@@ -1830,7 +1830,7 @@
         <v>127</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>128</v>
@@ -1844,7 +1844,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>87</v>
@@ -1858,7 +1858,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>130</v>
@@ -1872,7 +1872,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>133</v>
@@ -1886,7 +1886,7 @@
         <v>88</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>89</v>
@@ -1900,7 +1900,7 @@
         <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>91</v>
@@ -1914,7 +1914,7 @@
         <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>91</v>
@@ -1928,7 +1928,7 @@
         <v>93</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>91</v>
@@ -1942,7 +1942,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>94</v>
@@ -1956,7 +1956,7 @@
         <v>95</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>94</v>
@@ -1970,7 +1970,7 @@
         <v>96</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>94</v>
@@ -1984,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>98</v>
@@ -1998,7 +1998,7 @@
         <v>135</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>136</v>
@@ -2012,7 +2012,7 @@
         <v>137</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>138</v>
@@ -2026,7 +2026,7 @@
         <v>139</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>140</v>
@@ -2037,38 +2037,38 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="D78" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D78" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}"/>
-  <conditionalFormatting sqref="A1 C1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D78">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:D77">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A78:D78">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D38:D78 D4:D36" numberStoredAsText="1"/>
+    <ignoredError sqref="D38:D77 D4:D36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBAA1F-64DC-446E-98A8-B6CAB59BC217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF47B26-5A56-483F-8EA5-A49175F8A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -257,12 +257,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -495,6 +489,12 @@
   </si>
   <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -945,9 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:D78"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -962,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -976,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -990,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1001,16 +999,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1032,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1046,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1060,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1074,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1088,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1102,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1113,16 +1111,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1144,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1155,10 +1153,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1172,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1183,16 +1181,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
@@ -1214,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
@@ -1228,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -1239,13 +1237,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1256,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
@@ -1267,16 +1265,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -1298,7 +1296,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>36</v>
@@ -1309,30 +1307,30 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1338,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>38</v>
@@ -1354,7 +1352,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>40</v>
@@ -1368,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>42</v>
@@ -1382,7 +1380,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>42</v>
@@ -1396,7 +1394,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -1410,7 +1408,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1421,69 +1419,69 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="D34" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="D36" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1491,27 +1489,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1519,195 +1517,195 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>120</v>
+      <c r="D46" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="D50" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="4">
-        <v>820</v>
+        <v>122</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54" s="4">
         <v>553</v>
@@ -1715,13 +1713,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55" s="4">
         <v>395</v>
@@ -1729,13 +1727,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="4">
         <v>86</v>
@@ -1743,13 +1741,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="4">
         <v>87</v>
@@ -1757,13 +1755,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="4">
         <v>88</v>
@@ -1771,13 +1769,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D59" s="4">
         <v>55</v>
@@ -1785,13 +1783,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" s="4">
         <v>54</v>
@@ -1799,13 +1797,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D61" s="4">
         <v>994</v>
@@ -1813,13 +1811,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" s="4">
         <v>695</v>
@@ -1827,27 +1825,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1855,41 +1853,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" s="4">
         <v>107</v>
@@ -1897,13 +1895,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D68" s="4">
         <v>170</v>
@@ -1911,13 +1909,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D69" s="4">
         <v>163</v>
@@ -1925,13 +1923,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -1939,13 +1937,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D71" s="4">
         <v>1127</v>
@@ -1953,13 +1951,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D72" s="4">
         <v>569</v>
@@ -1967,13 +1965,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D73" s="4">
         <v>762</v>
@@ -1981,13 +1979,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -1995,80 +1993,81 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D78" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}"/>
+  <autoFilter ref="A1:D78" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
+      <sortCondition ref="A1:A78"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D77">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A2:D52 A54:D78">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D78">
+  <conditionalFormatting sqref="A53:D53">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
+      <formula>LEN(TRIM(A53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D38:D77 D4:D36" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF47B26-5A56-483F-8EA5-A49175F8A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECA1F9-8C6F-46A9-B4EA-939B4279C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -495,6 +492,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -960,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -974,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -988,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -999,16 +1001,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1030,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1044,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1058,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1072,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1086,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1100,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1111,16 +1113,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1142,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1153,10 +1155,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1170,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1181,16 +1183,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
@@ -1212,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
@@ -1226,7 +1228,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -1237,13 +1239,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1254,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
@@ -1265,16 +1267,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -1296,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>36</v>
@@ -1307,55 +1309,55 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1363,13 +1365,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D30" s="4">
         <v>899</v>
@@ -1377,13 +1379,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4">
         <v>896</v>
@@ -1391,13 +1393,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
         <v>900</v>
@@ -1405,13 +1407,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4">
         <v>898</v>
@@ -1419,13 +1421,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1433,13 +1435,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D35" s="4">
         <v>166</v>
@@ -1447,13 +1449,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4">
         <v>167</v>
@@ -1461,27 +1463,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1489,13 +1491,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1503,13 +1505,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1517,13 +1519,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1531,13 +1533,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1545,13 +1547,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1559,13 +1561,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1573,13 +1575,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1587,13 +1589,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1601,41 +1603,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1643,13 +1645,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D50" s="4">
         <v>211</v>
@@ -1657,27 +1659,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D52" s="4">
         <v>820</v>
@@ -1685,13 +1687,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="4">
         <v>819</v>
@@ -1699,13 +1701,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D54" s="4">
         <v>553</v>
@@ -1713,13 +1715,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D55" s="4">
         <v>395</v>
@@ -1727,13 +1729,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D56" s="4">
         <v>86</v>
@@ -1741,13 +1743,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="4">
         <v>87</v>
@@ -1755,13 +1757,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="4">
         <v>88</v>
@@ -1769,13 +1771,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="4">
         <v>55</v>
@@ -1783,13 +1785,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="4">
         <v>54</v>
@@ -1797,13 +1799,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="4">
         <v>994</v>
@@ -1811,13 +1813,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D62" s="4">
         <v>695</v>
@@ -1825,27 +1827,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1853,41 +1855,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D67" s="4">
         <v>107</v>
@@ -1895,13 +1897,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D68" s="4">
         <v>170</v>
@@ -1909,13 +1911,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="4">
         <v>163</v>
@@ -1923,13 +1925,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -1937,13 +1939,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="4">
         <v>1127</v>
@@ -1951,13 +1953,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="4">
         <v>569</v>
@@ -1965,13 +1967,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="4">
         <v>762</v>
@@ -1979,13 +1981,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -1993,55 +1995,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -2054,18 +2056,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D52 A54:D78">
+  <conditionalFormatting sqref="A2:D27 A29:D78">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:D53">
+  <conditionalFormatting sqref="A28:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A53))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECA1F9-8C6F-46A9-B4EA-939B4279C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76CA10-C2F8-4B7C-8DFB-805B359BA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
   <si>
     <t>Complemento</t>
   </si>
@@ -134,18 +134,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -356,18 +344,9 @@
     <t>S020089</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - ÚNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -495,6 +474,18 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -945,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -976,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -990,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1001,16 +992,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1032,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1046,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1060,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1074,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1088,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1102,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1113,16 +1104,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1144,7 +1135,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1155,10 +1146,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1172,7 +1163,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1183,16 +1174,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
@@ -1214,7 +1205,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
@@ -1228,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -1239,69 +1230,69 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="4" t="s">
         <v>101</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1309,41 +1300,41 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4">
         <v>1159</v>
@@ -1351,13 +1342,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1365,13 +1356,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4">
         <v>899</v>
@@ -1379,13 +1370,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4">
         <v>896</v>
@@ -1393,13 +1384,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4">
         <v>900</v>
@@ -1407,13 +1398,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4">
         <v>898</v>
@@ -1421,13 +1412,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1435,13 +1426,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4">
         <v>166</v>
@@ -1449,13 +1440,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>167</v>
@@ -1463,27 +1454,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1491,13 +1482,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1505,13 +1496,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1519,13 +1510,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1533,13 +1524,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1547,13 +1538,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1561,13 +1552,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1575,13 +1566,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1589,13 +1580,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1603,41 +1594,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1645,13 +1636,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>211</v>
@@ -1659,27 +1650,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
         <v>820</v>
@@ -1687,13 +1678,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D53" s="4">
         <v>819</v>
@@ -1701,13 +1692,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D54" s="4">
         <v>553</v>
@@ -1715,13 +1706,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4">
         <v>395</v>
@@ -1729,13 +1720,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D56" s="4">
         <v>86</v>
@@ -1743,13 +1734,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D57" s="4">
         <v>87</v>
@@ -1757,13 +1748,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58" s="4">
         <v>88</v>
@@ -1771,13 +1762,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D59" s="4">
         <v>55</v>
@@ -1785,13 +1776,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4">
         <v>54</v>
@@ -1799,13 +1790,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D61" s="4">
         <v>994</v>
@@ -1813,13 +1804,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D62" s="4">
         <v>695</v>
@@ -1827,27 +1818,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1855,41 +1846,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4">
         <v>107</v>
@@ -1897,13 +1888,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D68" s="4">
         <v>170</v>
@@ -1911,13 +1902,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D69" s="4">
         <v>163</v>
@@ -1925,13 +1916,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -1939,13 +1930,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D71" s="4">
         <v>1127</v>
@@ -1953,13 +1944,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D72" s="4">
         <v>569</v>
@@ -1967,13 +1958,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>762</v>
@@ -1981,13 +1972,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -1995,55 +1986,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -2056,18 +2047,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A29:D78">
+  <conditionalFormatting sqref="A2:D20 A25:D78">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D28">
+  <conditionalFormatting sqref="A21:D24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
+      <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76CA10-C2F8-4B7C-8DFB-805B359BA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FB941-317A-4FEF-89A2-ACF8261BA4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -486,6 +474,18 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -936,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -964,13 +1000,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -978,13 +1014,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4">
         <v>103</v>
@@ -992,27 +1028,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>809</v>
@@ -1020,13 +1056,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>1046</v>
@@ -1034,13 +1070,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>103</v>
@@ -1048,13 +1084,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>33</v>
@@ -1062,13 +1098,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>31</v>
@@ -1076,13 +1112,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -1090,13 +1126,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1104,27 +1140,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1132,13 +1168,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1146,13 +1182,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
@@ -1160,13 +1196,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1174,27 +1210,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D18" s="4">
         <v>52</v>
@@ -1202,13 +1238,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="4">
         <v>101</v>
@@ -1216,13 +1252,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="4">
         <v>103</v>
@@ -1230,13 +1266,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1244,13 +1280,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1258,13 +1294,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1272,13 +1308,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1286,13 +1322,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1300,41 +1336,41 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4">
         <v>1159</v>
@@ -1342,13 +1378,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1356,13 +1392,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="4">
         <v>899</v>
@@ -1370,13 +1406,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="4">
         <v>896</v>
@@ -1384,13 +1420,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4">
         <v>900</v>
@@ -1398,13 +1434,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>898</v>
@@ -1412,13 +1448,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1426,13 +1462,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D35" s="4">
         <v>166</v>
@@ -1440,13 +1476,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4">
         <v>167</v>
@@ -1454,27 +1490,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1482,27 +1518,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1510,13 +1546,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1524,13 +1560,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1538,13 +1574,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1552,13 +1588,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1566,13 +1602,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1580,13 +1616,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1594,41 +1630,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1636,13 +1672,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
         <v>211</v>
@@ -1650,27 +1686,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>820</v>
@@ -1678,13 +1714,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D53" s="4">
         <v>819</v>
@@ -1692,13 +1728,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" s="4">
         <v>553</v>
@@ -1706,13 +1742,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D55" s="4">
         <v>395</v>
@@ -1720,13 +1756,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="4">
         <v>86</v>
@@ -1734,13 +1770,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" s="4">
         <v>87</v>
@@ -1748,13 +1784,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" s="4">
         <v>88</v>
@@ -1762,13 +1798,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>55</v>
@@ -1776,13 +1812,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D60" s="4">
         <v>54</v>
@@ -1790,13 +1826,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61" s="4">
         <v>994</v>
@@ -1804,13 +1840,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D62" s="4">
         <v>695</v>
@@ -1818,27 +1854,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1846,41 +1882,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4">
         <v>107</v>
@@ -1888,13 +1924,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D68" s="4">
         <v>170</v>
@@ -1902,13 +1938,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" s="4">
         <v>163</v>
@@ -1916,13 +1952,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -1930,13 +1966,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71" s="4">
         <v>1127</v>
@@ -1944,13 +1980,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72" s="4">
         <v>569</v>
@@ -1958,13 +1994,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D73" s="4">
         <v>762</v>
@@ -1972,13 +2008,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -1986,55 +2022,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -2047,18 +2083,38 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D20 A25:D78">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A3:D38 A52:D78 A40:D48 B2:D2 A50:D50">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D24">
+  <conditionalFormatting sqref="A51:D51">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A51))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:D39">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:D49">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B49))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
+      <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FB941-317A-4FEF-89A2-ACF8261BA4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C8BBE-5E51-424A-8A7F-88D74DE54C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -593,43 +593,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -972,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,38 +2047,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D38 A52:D78 A40:D48 B2:D2 A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D27 A29:D78">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:D39">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:D49">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B49))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A28:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A49))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C8BBE-5E51-424A-8A7F-88D74DE54C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C07E8E-529C-4218-A7A5-0177D71669F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>Complemento</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110018</t>
   </si>
   <si>
     <t>FITA DUPLA FACE - UNICA</t>
@@ -593,16 +587,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -934,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -964,10 +949,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -981,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -995,7 +980,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>90</v>
@@ -1009,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1023,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1037,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1051,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1065,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1079,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1093,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1107,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>93</v>
@@ -1121,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1135,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1149,7 +1134,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1163,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1177,7 +1162,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
@@ -1191,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1205,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1219,7 +1204,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
@@ -1230,10 +1215,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>98</v>
@@ -1244,10 +1229,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>98</v>
@@ -1258,10 +1243,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>98</v>
@@ -1272,10 +1257,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>98</v>
@@ -1289,7 +1274,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1303,7 +1288,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>100</v>
@@ -1314,195 +1299,195 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4">
-        <v>167</v>
+        <v>103</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1510,86 +1495,86 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="4">
-        <v>2</v>
+      <c r="D46" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,7 +1582,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>57</v>
@@ -1608,380 +1593,380 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D53" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D55" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D56" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D58" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="4">
-        <v>695</v>
+        <v>112</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="D66" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="4">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +1974,7 @@
         <v>121</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>122</v>
@@ -2003,62 +1988,43 @@
         <v>123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="6">
+      <c r="D77" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D78" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
-      <sortCondition ref="A1:A78"/>
+  <autoFilter ref="A1:D77" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+      <sortCondition ref="A1:A77"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A29:D78">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D77">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D28">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C07E8E-529C-4218-A7A5-0177D71669F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6299186-FAE9-4D97-B0E7-FE2F2B49793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
   <si>
     <t>Complemento</t>
   </si>
@@ -402,12 +402,6 @@
   </si>
   <si>
     <t>S020007</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>TINTA P/ CARIMBO 42 ML - AZUL - AZUL</t>
@@ -919,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -949,10 +943,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -966,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -980,7 +974,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>90</v>
@@ -994,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1008,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1022,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1036,7 +1030,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1050,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1064,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1078,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1092,7 +1086,7 @@
         <v>92</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>93</v>
@@ -1106,7 +1100,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1120,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1134,7 +1128,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1148,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1162,7 +1156,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
@@ -1176,7 +1170,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1190,7 +1184,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1204,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
@@ -1215,10 +1209,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>98</v>
@@ -1229,10 +1223,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>98</v>
@@ -1243,10 +1237,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>98</v>
@@ -1257,10 +1251,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>98</v>
@@ -1274,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1288,7 +1282,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>100</v>
@@ -1299,10 +1293,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1316,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1330,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1344,7 +1338,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1358,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1372,7 +1366,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
@@ -1383,13 +1377,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4">
         <v>750</v>
@@ -1400,7 +1394,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>41</v>
@@ -1414,7 +1408,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1428,7 +1422,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>103</v>
@@ -1439,13 +1433,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1453,10 +1447,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1470,7 +1464,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1484,7 +1478,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1498,7 +1492,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1512,7 +1506,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1526,7 +1520,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1540,7 +1534,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1554,7 +1548,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1568,7 +1562,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>57</v>
@@ -1582,7 +1576,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>57</v>
@@ -1593,10 +1587,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>58</v>
@@ -1610,7 +1604,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -1621,10 +1615,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>108</v>
@@ -1638,7 +1632,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>62</v>
@@ -1652,7 +1646,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
@@ -1666,7 +1660,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>65</v>
@@ -1680,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>67</v>
@@ -1694,7 +1688,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>69</v>
@@ -1708,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>69</v>
@@ -1722,7 +1716,7 @@
         <v>71</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>69</v>
@@ -1736,7 +1730,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>72</v>
@@ -1750,7 +1744,7 @@
         <v>110</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>72</v>
@@ -1764,7 +1758,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>74</v>
@@ -1778,7 +1772,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>74</v>
@@ -1792,7 +1786,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>112</v>
@@ -1806,7 +1800,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>77</v>
@@ -1820,7 +1814,7 @@
         <v>113</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>114</v>
@@ -1834,7 +1828,7 @@
         <v>116</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>117</v>
@@ -1848,7 +1842,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>79</v>
@@ -1862,7 +1856,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>81</v>
@@ -1876,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>81</v>
@@ -1890,7 +1884,7 @@
         <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
@@ -1904,7 +1898,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -1918,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
@@ -1932,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -1946,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>88</v>
@@ -1960,7 +1954,7 @@
         <v>119</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>120</v>
@@ -1974,47 +1968,33 @@
         <v>121</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="6">
+      <c r="D76" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D77" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
-      <sortCondition ref="A1:A77"/>
+  <autoFilter ref="A1:D76" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2022,7 +2002,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D77">
+  <conditionalFormatting sqref="A2:D76">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6299186-FAE9-4D97-B0E7-FE2F2B49793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBD6D1-2B38-4E38-BD3B-07149F52CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -473,7 +470,10 @@
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -915,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -943,10 +952,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -960,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -971,16 +980,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1002,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1016,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1030,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1044,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1058,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1072,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1083,16 +1092,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1114,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1125,10 +1134,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1142,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1153,16 +1162,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1184,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1198,7 +1207,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
@@ -1209,13 +1218,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1223,13 +1232,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1237,13 +1246,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1251,13 +1260,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1268,7 +1277,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1279,24 +1288,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1310,7 +1319,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1324,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1338,7 +1347,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1352,7 +1361,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1366,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
@@ -1377,13 +1386,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D33" s="4">
         <v>750</v>
@@ -1394,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>41</v>
@@ -1408,7 +1417,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1419,27 +1428,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1447,10 +1456,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1464,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1478,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1492,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1506,7 +1515,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1520,7 +1529,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1534,7 +1543,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1548,7 +1557,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1559,55 +1568,55 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D49" s="4">
         <v>211</v>
@@ -1615,13 +1624,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4">
         <v>1167</v>
@@ -1629,13 +1638,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D51" s="4">
         <v>820</v>
@@ -1643,13 +1652,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4">
         <v>819</v>
@@ -1657,13 +1666,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D53" s="4">
         <v>553</v>
@@ -1671,13 +1680,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D54" s="4">
         <v>395</v>
@@ -1685,13 +1694,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D55" s="4">
         <v>86</v>
@@ -1699,13 +1708,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="4">
         <v>87</v>
@@ -1713,13 +1722,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>88</v>
@@ -1727,13 +1736,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="4">
         <v>55</v>
@@ -1741,13 +1750,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="4">
         <v>54</v>
@@ -1755,13 +1764,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4">
         <v>994</v>
@@ -1769,13 +1778,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D61" s="4">
         <v>695</v>
@@ -1783,27 +1792,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1811,41 +1820,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D66" s="4">
         <v>107</v>
@@ -1853,13 +1862,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>170</v>
@@ -1867,13 +1876,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="4">
         <v>163</v>
@@ -1881,13 +1890,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" s="4">
         <v>799</v>
@@ -1895,13 +1904,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="4">
         <v>1127</v>
@@ -1909,13 +1918,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="4">
         <v>569</v>
@@ -1923,13 +1932,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" s="4">
         <v>762</v>
@@ -1937,13 +1946,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D73" s="4">
         <v>211</v>
@@ -1951,41 +1960,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -1998,13 +2007,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D76">
+  <conditionalFormatting sqref="A2:D47 A49:D76">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:D48">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BBD6D1-2B38-4E38-BD3B-07149F52CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCF24E-181D-4AE8-B581-10B27F337719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -581,16 +575,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -922,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -952,10 +937,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -966,30 +951,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,55 +996,55 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,41 +1052,41 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,69 +1094,69 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,125 +1178,125 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,13 +1304,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,69 +1318,69 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="D32" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,69 +1388,69 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="4">
-        <v>167</v>
+        <v>100</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1487,13 +1472,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,13 +1486,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,13 +1500,13 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,13 +1514,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,27 +1528,27 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="4">
-        <v>745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,10 +1556,10 @@
         <v>103</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>104</v>
@@ -1582,58 +1567,58 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>106</v>
+        <v>142</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D50" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,27 +1626,27 @@
         <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D52" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,13 +1654,13 @@
         <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,13 +1668,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,153 +1682,153 @@
         <v>67</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="4">
-        <v>695</v>
+        <v>109</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="D65" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,13 +1836,13 @@
         <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,97 +1850,97 @@
         <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D67" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D72" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="4">
-        <v>211</v>
+        <v>117</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,62 +1948,43 @@
         <v>118</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="6">
+      <c r="D75" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D76" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:D75" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+      <sortCondition ref="A1:A75"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D47 A49:D76">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D75">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:D48">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCF24E-181D-4AE8-B581-10B27F337719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12FD9F-628D-4CFA-987B-EB73D15CB08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>Complemento</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>S200035</t>
@@ -907,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -937,10 +931,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -951,16 +945,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -982,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -996,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1010,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1024,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1038,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1052,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1063,16 +1057,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,7 +1074,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1094,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1105,10 +1099,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1122,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1133,16 +1127,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -1164,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1178,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1189,13 +1183,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1203,13 +1197,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1217,13 +1211,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1231,13 +1225,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1248,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1259,24 +1253,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1290,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1304,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1318,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1332,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1346,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -1357,13 +1351,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4">
         <v>750</v>
@@ -1374,7 +1368,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>39</v>
@@ -1388,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1399,27 +1393,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1427,10 +1421,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1444,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1458,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1472,7 +1466,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1486,7 +1480,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1500,7 +1494,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1514,7 +1508,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1528,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1539,41 +1533,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="4">
         <v>1181</v>
@@ -1584,7 +1578,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>57</v>
@@ -1595,13 +1589,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1612,7 +1606,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>59</v>
@@ -1626,7 +1620,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>59</v>
@@ -1640,7 +1634,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
@@ -1654,7 +1648,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -1668,7 +1662,7 @@
         <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>66</v>
@@ -1679,86 +1673,86 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D55" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D56" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="4">
-        <v>994</v>
+        <v>107</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,97 +1760,97 @@
         <v>108</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="4">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
+      </c>
+      <c r="D63" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="D64" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="4">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D66" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D67" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,27 +1858,27 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,89 +1886,61 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D70" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="4">
-        <v>762</v>
+        <v>115</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="4">
-        <v>211</v>
+        <v>117</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="6">
+      <c r="D73" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D75" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
-      <sortCondition ref="A1:A75"/>
+  <autoFilter ref="A1:D73" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+      <sortCondition ref="A1:A73"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -1982,7 +1948,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D75">
+  <conditionalFormatting sqref="A2:D73">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12FD9F-628D-4CFA-987B-EB73D15CB08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAB903-A371-4BBA-8D8F-DDB0907DA34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>Complemento</t>
   </si>
@@ -224,9 +224,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -462,6 +456,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -904,7 +910,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+      <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -931,10 +937,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -945,16 +951,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -976,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -990,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1004,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1018,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1032,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1046,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1057,16 +1063,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1088,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1099,10 +1105,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1116,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1127,16 +1133,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1150,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -1158,7 +1164,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1172,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1183,13 +1189,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1197,13 +1203,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1211,13 +1217,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1225,13 +1231,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1242,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1253,24 +1259,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1284,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1298,7 +1304,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1312,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1326,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1340,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -1351,13 +1357,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="4">
         <v>750</v>
@@ -1368,7 +1374,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>39</v>
@@ -1382,7 +1388,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1393,27 +1399,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1421,10 +1427,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1438,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1452,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1466,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1480,7 +1486,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1494,7 +1500,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1508,7 +1514,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1522,7 +1528,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1533,41 +1539,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="4">
         <v>1181</v>
@@ -1578,7 +1584,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>57</v>
@@ -1589,13 +1595,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1606,7 +1612,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>59</v>
@@ -1620,7 +1626,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>59</v>
@@ -1631,27 +1637,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D52" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1659,13 +1665,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="4">
         <v>55</v>
@@ -1687,13 +1693,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4">
         <v>54</v>
@@ -1701,13 +1707,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>994</v>
@@ -1715,13 +1721,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D58" s="4">
         <v>695</v>
@@ -1729,27 +1735,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1757,41 +1763,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D63" s="4">
         <v>107</v>
@@ -1799,13 +1805,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D64" s="4">
         <v>170</v>
@@ -1813,13 +1819,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" s="4">
         <v>163</v>
@@ -1827,13 +1833,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>799</v>
@@ -1841,13 +1847,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="4">
         <v>1127</v>
@@ -1855,13 +1861,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="4">
         <v>569</v>
@@ -1869,13 +1875,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>762</v>
@@ -1883,13 +1889,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -1897,41 +1903,41 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -1944,13 +1950,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D73">
+  <conditionalFormatting sqref="A2:D51 A53:D73">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAB903-A371-4BBA-8D8F-DDB0907DA34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E020C8E-B67E-4B45-B26B-25862905921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1052,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1094,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1122,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1133,16 +1133,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -1164,7 +1164,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -1178,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1248,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1259,24 +1259,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1290,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1304,7 +1304,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1318,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1332,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D32" s="4">
         <v>750</v>
@@ -1374,7 +1374,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>39</v>
@@ -1388,7 +1388,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1399,27 +1399,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1444,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1455,27 +1455,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>745</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
@@ -1539,41 +1539,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D47" s="4">
         <v>1181</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1394</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="4">
         <v>55</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="4">
         <v>54</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="4">
         <v>994</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D58" s="4">
         <v>695</v>
@@ -1735,27 +1735,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1763,41 +1763,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D63" s="4">
         <v>107</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D64" s="4">
         <v>170</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>163</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4">
         <v>799</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="4">
         <v>1127</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>569</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>762</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -1903,41 +1903,41 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -1950,18 +1950,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D51 A53:D73">
+  <conditionalFormatting sqref="A2:D38 A40:D73">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D52">
+  <conditionalFormatting sqref="A39:D39">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
+      <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E020C8E-B67E-4B45-B26B-25862905921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2D74D-A830-4604-BD01-D3C47BD73C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -293,24 +272,9 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHO</t>
   </si>
   <si>
-    <t>CLIPE 6/0 COM 50 UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020089</t>
   </si>
   <si>
@@ -323,27 +287,15 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -353,9 +305,6 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -365,21 +314,12 @@
     <t>S020107</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -392,9 +332,6 @@
     <t>S110037</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -416,9 +353,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>FILME PVC PLASTICO - 300 M</t>
   </si>
   <si>
@@ -459,6 +393,57 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 6/0 - 50 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -566,16 +551,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -909,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -937,10 +913,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -951,16 +927,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -982,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -996,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1010,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1024,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1038,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1049,41 +1025,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>87</v>
+      <c r="D11" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1091,13 +1067,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1105,13 +1081,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
@@ -1119,41 +1095,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="6">
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>52</v>
@@ -1161,13 +1137,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <v>101</v>
@@ -1175,13 +1151,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4">
         <v>103</v>
@@ -1189,13 +1165,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1203,13 +1179,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1217,13 +1193,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1231,13 +1207,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1245,41 +1221,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="D25" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4">
         <v>1162</v>
@@ -1287,27 +1263,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4">
         <v>899</v>
@@ -1315,13 +1291,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4">
         <v>896</v>
@@ -1329,13 +1305,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
         <v>900</v>
@@ -1343,13 +1319,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4">
         <v>898</v>
@@ -1357,13 +1333,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4">
         <v>750</v>
@@ -1371,13 +1347,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4">
         <v>166</v>
@@ -1385,13 +1361,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4">
         <v>167</v>
@@ -1399,41 +1375,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="D35" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37" s="4">
         <v>448</v>
@@ -1441,13 +1417,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4">
         <v>80</v>
@@ -1455,13 +1431,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4">
         <v>1396</v>
@@ -1469,27 +1445,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -1497,27 +1473,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>745</v>
@@ -1525,13 +1501,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
@@ -1539,41 +1515,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>98</v>
+        <v>48</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4">
         <v>1181</v>
@@ -1581,13 +1557,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1595,13 +1571,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1609,13 +1585,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1623,13 +1599,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1637,13 +1613,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4">
         <v>1394</v>
@@ -1651,13 +1627,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1665,13 +1641,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1679,13 +1655,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D55" s="4">
         <v>55</v>
@@ -1693,13 +1669,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D56" s="4">
         <v>54</v>
@@ -1707,13 +1683,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4">
         <v>994</v>
@@ -1721,13 +1697,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4">
         <v>695</v>
@@ -1735,69 +1711,69 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="D61" s="6">
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>107</v>
@@ -1805,13 +1781,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D64" s="4">
         <v>170</v>
@@ -1819,13 +1795,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D65" s="4">
         <v>163</v>
@@ -1833,13 +1809,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4">
         <v>799</v>
@@ -1847,13 +1823,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
         <v>1127</v>
@@ -1861,13 +1837,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>569</v>
@@ -1875,13 +1851,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D69" s="4">
         <v>762</v>
@@ -1889,13 +1865,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -1903,65 +1879,55 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="D71" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D73" s="6">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D73" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
-      <sortCondition ref="A1:A73"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D38 A40:D73">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D73">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:D39">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2D74D-A830-4604-BD01-D3C47BD73C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADC202-BD68-4716-B7DC-78EAAB200694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADC202-BD68-4716-B7DC-78EAAB200694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B263C09-695A-4F62-B89D-5B14E647ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -551,7 +551,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -885,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1183,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,7 +1197,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,7 +1211,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,7 +1225,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,13 +1930,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D73">
+  <conditionalFormatting sqref="A2:D19 A24:D73">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D23">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_ssala.xlsx
+++ b/pages/RN_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B263C09-695A-4F62-B89D-5B14E647ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F2695-3CCE-4EBA-BF26-2F4FB3CE511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{557A754B-19C1-461D-B96B-70A61FC2E330}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
   <si>
     <t>Complemento</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -551,16 +557,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -892,11 +889,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1230,63 +1225,63 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1436</v>
+        <v>81</v>
+      </c>
+      <c r="D24" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="6">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>99</v>
@@ -1295,12 +1290,12 @@
         <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>99</v>
@@ -1309,12 +1304,12 @@
         <v>30</v>
       </c>
       <c r="D29" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>99</v>
@@ -1323,40 +1318,40 @@
         <v>30</v>
       </c>
       <c r="D30" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>99</v>
@@ -1365,91 +1360,91 @@
         <v>35</v>
       </c>
       <c r="D33" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="4">
-        <v>167</v>
+        <v>82</v>
+      </c>
+      <c r="D34" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="6">
-        <v>272</v>
+        <v>97</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1157</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,21 +1827,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>103</v>
@@ -1855,12 +1850,12 @@
         <v>70</v>
       </c>
       <c r="D68" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>103</v>
@@ -1869,79 +1864,93 @@
         <v>70</v>
       </c>
       <c r="D69" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D70" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="6">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D71" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D72" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="B74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D74" xr:uid="{179A4AA4-00CD-481A-B8A7-E6317ADCB54C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+      <sortCondition ref="A1:A74"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D19 A24:D73">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D74">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D23">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
